--- a/data/trans_orig/P36BPD06_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF75EAE-1B50-49CD-A842-BE2A2DBD59B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A006A3-7934-40AB-AF10-7A001DF171FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A55B0420-B064-45C1-9A8C-B0FC9355B36A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D10CEB8-3D1A-4C60-94D5-E60404D1A1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>92,55%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>77,11%</t>
   </si>
   <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>6,96%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,49 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>19,79%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>80,21%</t>
   </si>
   <si>
     <t>84,9%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +302,55 @@
     <t>20,37%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>86,34%</t>
   </si>
   <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +359,55 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>95,39%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,49 +416,55 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>13,7%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>86,3%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +473,109 @@
     <t>56,26%</t>
   </si>
   <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>43,74%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
   </si>
   <si>
     <t>43,63%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>43,68%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3E7FCF-792A-4BF5-9424-76199210EA09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AC9E9C-DC05-4E30-99C6-45A0405660DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,10 +1582,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -1594,13 +1594,13 @@
         <v>64664</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -1609,13 +1609,13 @@
         <v>110722</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1630,13 @@
         <v>274532</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>525</v>
@@ -1645,13 +1645,13 @@
         <v>363463</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>773</v>
@@ -1660,13 +1660,13 @@
         <v>637995</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1734,13 @@
         <v>39759</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -1749,13 +1749,13 @@
         <v>31570</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -1764,13 +1764,13 @@
         <v>71329</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>155438</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
@@ -1800,13 +1800,13 @@
         <v>199474</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>649</v>
@@ -1815,13 +1815,13 @@
         <v>354913</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>12762</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -1904,13 +1904,13 @@
         <v>18973</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -1919,13 +1919,13 @@
         <v>31735</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>264049</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -1955,13 +1955,13 @@
         <v>256649</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>783</v>
@@ -1970,13 +1970,13 @@
         <v>520699</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2044,13 @@
         <v>105258</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2059,13 +2059,13 @@
         <v>227191</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
@@ -2074,13 +2074,13 @@
         <v>332449</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,10 +2095,10 @@
         <v>516747</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>136</v>

--- a/data/trans_orig/P36BPD06_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A006A3-7934-40AB-AF10-7A001DF171FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA9E831-7B8C-4AD8-94F2-594D2BB72435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D10CEB8-3D1A-4C60-94D5-E60404D1A1E2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5483853D-9E5E-4945-9EE5-B70A2A03DFC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Una o más al día</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,448 +134,448 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>77,11%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>82,81%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AC9E9C-DC05-4E30-99C6-45A0405660DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33369413-E096-490B-BF6D-174F9849A4BE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1111,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>19384</v>
+        <v>22471</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1126,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>20516</v>
+        <v>21325</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1141,7 @@
         <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>39899</v>
+        <v>43796</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1162,7 @@
         <v>303</v>
       </c>
       <c r="D5" s="7">
-        <v>240914</v>
+        <v>288972</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1177,7 @@
         <v>489</v>
       </c>
       <c r="I5" s="7">
-        <v>250887</v>
+        <v>268310</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1192,7 @@
         <v>792</v>
       </c>
       <c r="N5" s="7">
-        <v>491801</v>
+        <v>557281</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1213,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1228,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1243,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1266,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>85370</v>
+        <v>86089</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1281,7 @@
         <v>162</v>
       </c>
       <c r="I7" s="7">
-        <v>126938</v>
+        <v>118341</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1296,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>212308</v>
+        <v>204431</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1317,7 @@
         <v>318</v>
       </c>
       <c r="D8" s="7">
-        <v>432564</v>
+        <v>431025</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1332,7 @@
         <v>555</v>
       </c>
       <c r="I8" s="7">
-        <v>427628</v>
+        <v>396628</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1347,7 @@
         <v>873</v>
       </c>
       <c r="N8" s="7">
-        <v>860193</v>
+        <v>827652</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1368,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>517934</v>
+        <v>517114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1383,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1398,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1072501</v>
+        <v>1032083</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1421,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>22304</v>
+        <v>21892</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>49641</v>
+        <v>46637</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1451,7 @@
         <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>71945</v>
+        <v>68529</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1472,7 @@
         <v>333</v>
       </c>
       <c r="D11" s="7">
-        <v>298029</v>
+        <v>292322</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1487,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>320322</v>
+        <v>299406</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1502,7 @@
         <v>794</v>
       </c>
       <c r="N11" s="7">
-        <v>618351</v>
+        <v>591728</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1523,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320333</v>
+        <v>314214</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1538,7 @@
         <v>530</v>
       </c>
       <c r="I12" s="7">
-        <v>369963</v>
+        <v>346043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1553,7 @@
         <v>888</v>
       </c>
       <c r="N12" s="7">
-        <v>690296</v>
+        <v>660257</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,46 +1576,46 @@
         <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>46058</v>
+        <v>45277</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
       </c>
       <c r="I13" s="7">
-        <v>64664</v>
+        <v>115366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
       </c>
       <c r="N13" s="7">
-        <v>110722</v>
+        <v>160643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,46 +1627,46 @@
         <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>274532</v>
+        <v>265713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>525</v>
       </c>
       <c r="I14" s="7">
-        <v>363463</v>
+        <v>359951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>773</v>
       </c>
       <c r="N14" s="7">
-        <v>637995</v>
+        <v>625664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>290</v>
       </c>
       <c r="D15" s="7">
-        <v>320590</v>
+        <v>310990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1693,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428127</v>
+        <v>475317</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1708,7 @@
         <v>888</v>
       </c>
       <c r="N15" s="7">
-        <v>748717</v>
+        <v>786307</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1731,46 +1731,46 @@
         <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>39759</v>
+        <v>36078</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>31570</v>
+        <v>28319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
       </c>
       <c r="N16" s="7">
-        <v>71329</v>
+        <v>64396</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,46 +1782,46 @@
         <v>224</v>
       </c>
       <c r="D17" s="7">
-        <v>155438</v>
+        <v>141302</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>425</v>
       </c>
       <c r="I17" s="7">
-        <v>199474</v>
+        <v>179542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>649</v>
       </c>
       <c r="N17" s="7">
-        <v>354913</v>
+        <v>320845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1833,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>195197</v>
+        <v>177380</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1848,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231044</v>
+        <v>207861</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1863,7 @@
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>426242</v>
+        <v>385241</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1886,46 +1886,46 @@
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>12762</v>
+        <v>12304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>18973</v>
+        <v>17493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
       </c>
       <c r="N19" s="7">
-        <v>31735</v>
+        <v>29797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +1937,46 @@
         <v>352</v>
       </c>
       <c r="D20" s="7">
-        <v>264049</v>
+        <v>256941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
       </c>
       <c r="I20" s="7">
-        <v>256649</v>
+        <v>239563</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>783</v>
       </c>
       <c r="N20" s="7">
-        <v>520699</v>
+        <v>496504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1988,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276811</v>
+        <v>269245</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +2003,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2018,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552434</v>
+        <v>526301</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,46 +2041,46 @@
         <v>103</v>
       </c>
       <c r="D22" s="7">
-        <v>105258</v>
+        <v>108256</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
       </c>
       <c r="I22" s="7">
-        <v>227191</v>
+        <v>312791</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>267</v>
       </c>
       <c r="N22" s="7">
-        <v>332449</v>
+        <v>421046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2092,46 @@
         <v>490</v>
       </c>
       <c r="D23" s="7">
-        <v>516747</v>
+        <v>510432</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>794</v>
       </c>
       <c r="I23" s="7">
-        <v>576157</v>
+        <v>535661</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1284</v>
       </c>
       <c r="N23" s="7">
-        <v>1092904</v>
+        <v>1046093</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2143,7 @@
         <v>593</v>
       </c>
       <c r="D24" s="7">
-        <v>622005</v>
+        <v>618688</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2158,7 @@
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>803348</v>
+        <v>848452</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2173,7 @@
         <v>1551</v>
       </c>
       <c r="N24" s="7">
-        <v>1425353</v>
+        <v>1467139</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2196,46 @@
         <v>455</v>
       </c>
       <c r="D25" s="7">
-        <v>481990</v>
+        <v>408240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>603</v>
       </c>
       <c r="I25" s="7">
-        <v>489561</v>
+        <v>405732</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1058</v>
       </c>
       <c r="N25" s="7">
-        <v>971551</v>
+        <v>813972</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2247,46 @@
         <v>304</v>
       </c>
       <c r="D26" s="7">
-        <v>374674</v>
+        <v>518076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>459</v>
       </c>
       <c r="I26" s="7">
-        <v>378873</v>
+        <v>311999</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>763</v>
       </c>
       <c r="N26" s="7">
-        <v>753547</v>
+        <v>830076</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2298,7 @@
         <v>759</v>
       </c>
       <c r="D27" s="7">
-        <v>856664</v>
+        <v>926316</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2313,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2328,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725098</v>
+        <v>1644048</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,46 +2351,46 @@
         <v>788</v>
       </c>
       <c r="D28" s="7">
-        <v>812886</v>
+        <v>740606</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>1214</v>
       </c>
       <c r="I28" s="7">
-        <v>1029054</v>
+        <v>1066004</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>2002</v>
       </c>
       <c r="N28" s="7">
-        <v>1841939</v>
+        <v>1806611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,22 +2402,22 @@
         <v>2572</v>
       </c>
       <c r="D29" s="7">
-        <v>2556947</v>
+        <v>2704784</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="H29" s="7">
         <v>4139</v>
       </c>
       <c r="I29" s="7">
-        <v>2773454</v>
+        <v>2591059</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -2432,7 +2432,7 @@
         <v>6711</v>
       </c>
       <c r="N29" s="7">
-        <v>5330402</v>
+        <v>5295842</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -2453,7 +2453,7 @@
         <v>3360</v>
       </c>
       <c r="D30" s="7">
-        <v>3369833</v>
+        <v>3445390</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2468,7 @@
         <v>5353</v>
       </c>
       <c r="I30" s="7">
-        <v>3802508</v>
+        <v>3657063</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2483,7 @@
         <v>8713</v>
       </c>
       <c r="N30" s="7">
-        <v>7172341</v>
+        <v>7102453</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
